--- a/reports/HTTPS-Local-ServerSideTime-Streaming-Measurements.xlsx
+++ b/reports/HTTPS-Local-ServerSideTime-Streaming-Measurements.xlsx
@@ -415,10 +415,10 @@
                   <c:v>220.47200000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2076.4360000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4083.8820000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -434,11 +434,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="301561376"/>
-        <c:axId val="301561768"/>
+        <c:axId val="226825152"/>
+        <c:axId val="226825544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="301561376"/>
+        <c:axId val="226825152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -480,7 +480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301561768"/>
+        <c:crossAx val="226825544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -488,7 +488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301561768"/>
+        <c:axId val="226825544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -538,7 +538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301561376"/>
+        <c:crossAx val="226825152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -793,10 +793,10 @@
                   <c:v>149.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>156.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -812,11 +812,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="329301120"/>
-        <c:axId val="329301512"/>
+        <c:axId val="228356032"/>
+        <c:axId val="228356424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="329301120"/>
+        <c:axId val="228356032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -858,7 +858,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329301512"/>
+        <c:crossAx val="228356424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -866,7 +866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329301512"/>
+        <c:axId val="228356424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,7 +916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329301120"/>
+        <c:crossAx val="228356032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1200,11 +1200,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="329302296"/>
-        <c:axId val="329302688"/>
+        <c:axId val="228357208"/>
+        <c:axId val="229264272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="329302296"/>
+        <c:axId val="228357208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,7 +1264,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329302688"/>
+        <c:crossAx val="229264272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1272,7 +1272,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329302688"/>
+        <c:axId val="229264272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,7 +1333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329302296"/>
+        <c:crossAx val="228357208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1640,10 +1640,10 @@
                   <c:v>86.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1659,11 +1659,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="301562552"/>
-        <c:axId val="301562944"/>
+        <c:axId val="226826328"/>
+        <c:axId val="226826720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="301562552"/>
+        <c:axId val="226826328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1705,7 +1705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301562944"/>
+        <c:crossAx val="226826720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1713,7 +1713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301562944"/>
+        <c:axId val="226826720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1763,7 +1763,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301562552"/>
+        <c:crossAx val="226826328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1990,10 +1990,10 @@
                   <c:v>22.635000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>206.2893333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2045.0630000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2071,10 +2071,10 @@
                   <c:v>22.670666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>206.00099999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2045.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2093,11 +2093,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="328466232"/>
-        <c:axId val="328466624"/>
+        <c:axId val="228568944"/>
+        <c:axId val="228569336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="328466232"/>
+        <c:axId val="228568944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2139,7 +2139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328466624"/>
+        <c:crossAx val="228569336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2147,7 +2147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328466624"/>
+        <c:axId val="228569336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2197,7 +2197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328466232"/>
+        <c:crossAx val="228568944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2509,10 +2509,10 @@
                   <c:v>218.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>99.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2531,11 +2531,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="328467408"/>
-        <c:axId val="328467800"/>
+        <c:axId val="228570120"/>
+        <c:axId val="228570512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="328467408"/>
+        <c:axId val="228570120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2577,7 +2577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328467800"/>
+        <c:crossAx val="228570512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2585,7 +2585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328467800"/>
+        <c:axId val="228570512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2635,7 +2635,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328467408"/>
+        <c:crossAx val="228570120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2862,10 +2862,10 @@
                   <c:v>23.374666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>207.4673333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2083.6439999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2943,10 +2943,10 @@
                   <c:v>23.331333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>207.21700000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2075.355</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3024,10 +3024,10 @@
                   <c:v>23.378</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>207.55799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2075.2260000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3046,11 +3046,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="328468584"/>
-        <c:axId val="328468976"/>
+        <c:axId val="228571296"/>
+        <c:axId val="228571688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="328468584"/>
+        <c:axId val="228571296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3092,7 +3092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328468976"/>
+        <c:crossAx val="228571688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3100,7 +3100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328468976"/>
+        <c:axId val="228571688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3150,7 +3150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328468584"/>
+        <c:crossAx val="228571296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3462,10 +3462,10 @@
                   <c:v>173.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>128.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3484,11 +3484,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="328469760"/>
-        <c:axId val="328746808"/>
+        <c:axId val="228572472"/>
+        <c:axId val="228985736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="328469760"/>
+        <c:axId val="228572472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3530,7 +3530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328746808"/>
+        <c:crossAx val="228985736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3538,7 +3538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328746808"/>
+        <c:axId val="228985736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3588,7 +3588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328469760"/>
+        <c:crossAx val="228572472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3798,10 +3798,10 @@
                   <c:v>24.883333333333336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>229.596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2166.9569999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3873,10 +3873,10 @@
                   <c:v>24.908000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>226.48933333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2152.752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3948,10 +3948,10 @@
                   <c:v>25.178666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>226.86199999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2174.8629999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4023,10 +4023,10 @@
                   <c:v>25.165666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>227.71833333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2187.2890000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4042,11 +4042,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="328747592"/>
-        <c:axId val="328747984"/>
+        <c:axId val="228986520"/>
+        <c:axId val="228986912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="328747592"/>
+        <c:axId val="228986520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4107,7 +4107,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328747984"/>
+        <c:crossAx val="228986912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4115,7 +4115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328747984"/>
+        <c:axId val="228986912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4176,7 +4176,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328747592"/>
+        <c:crossAx val="228986520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4463,10 +4463,10 @@
                   <c:v>117.33333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4482,11 +4482,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="328748768"/>
-        <c:axId val="328749160"/>
+        <c:axId val="228987696"/>
+        <c:axId val="228988088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="328748768"/>
+        <c:axId val="228987696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4547,7 +4547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328749160"/>
+        <c:crossAx val="228988088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4555,7 +4555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328749160"/>
+        <c:axId val="228988088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4616,7 +4616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328748768"/>
+        <c:crossAx val="228987696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4826,10 +4826,10 @@
                   <c:v>28.513333333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>278.68266666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2526.893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4901,10 +4901,10 @@
                   <c:v>27.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>272.68633333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2499.8090000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4976,10 +4976,10 @@
                   <c:v>28.415333333333336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>269.61633333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2493.2539999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5051,10 +5051,10 @@
                   <c:v>28.192333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>268.12400000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2453.5740000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5126,10 +5126,10 @@
                   <c:v>28.613666666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>276.09399999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2531.4070000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5145,11 +5145,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="328749944"/>
-        <c:axId val="328750336"/>
+        <c:axId val="228988872"/>
+        <c:axId val="228989264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="328749944"/>
+        <c:axId val="228988872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5191,7 +5191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328750336"/>
+        <c:crossAx val="228989264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5199,7 +5199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328750336"/>
+        <c:axId val="228989264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5249,7 +5249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328749944"/>
+        <c:crossAx val="228988872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12029,7 +12029,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12194,13 +12194,21 @@
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="1">
+        <v>2110.837</v>
+      </c>
+      <c r="C18" s="1">
+        <v>123</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1">
+        <v>2042.0350000000001</v>
+      </c>
+      <c r="C19" s="1">
+        <v>79</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -12211,21 +12219,25 @@
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4" t="e">
+      <c r="B21" s="4">
         <f>AVERAGE(B18:B20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C21" s="4" t="e">
+        <v>2076.4360000000001</v>
+      </c>
+      <c r="C21" s="4">
         <f t="shared" ref="C21" si="3">AVERAGE(C18:C20)</f>
-        <v>#DIV/0!</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="1">
+        <v>4083.8820000000001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>97</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -12241,13 +12253,13 @@
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="4" t="e">
+      <c r="B25" s="4">
         <f>AVERAGE(B22:B24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C25" s="4" t="e">
+        <v>4083.8820000000001</v>
+      </c>
+      <c r="C25" s="4">
         <f>AVERAGE(C22:C24)</f>
-        <v>#DIV/0!</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12304,26 +12316,26 @@
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="1" t="e">
+      <c r="B34" s="1">
         <f>B21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C34" s="1" t="e">
+        <v>2076.4360000000001</v>
+      </c>
+      <c r="C34" s="1">
         <f t="shared" ref="C34" si="7">C21</f>
-        <v>#DIV/0!</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="1" t="e">
+      <c r="B35" s="1">
         <f>B25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C35" s="1" t="e">
+        <v>4083.8820000000001</v>
+      </c>
+      <c r="C35" s="1">
         <f t="shared" ref="C35" si="8">C25</f>
-        <v>#DIV/0!</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -12337,7 +12349,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12489,46 +12501,70 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="1">
+        <v>208.09100000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>207.45699999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="1">
+        <v>205.602</v>
+      </c>
+      <c r="C15" s="1">
+        <v>205.56</v>
+      </c>
+      <c r="D15" s="1">
+        <v>127</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="1">
+        <v>205.17500000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>204.98599999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>118</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="4" t="e">
+      <c r="B17" s="4">
         <f>AVERAGE(B14:B16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="4" t="e">
+        <v>206.2893333333333</v>
+      </c>
+      <c r="C17" s="4">
         <f t="shared" ref="C17:D17" si="0">AVERAGE(C14:C16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="4" t="e">
+        <v>206.00099999999998</v>
+      </c>
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>99.333333333333329</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="1">
+        <v>2045.0630000000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2045.08</v>
+      </c>
+      <c r="D18" s="1">
+        <v>121</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -12546,17 +12582,17 @@
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4" t="e">
+      <c r="B21" s="4">
         <f>AVERAGE(B18:B20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C21" s="4" t="e">
+        <v>2045.0630000000001</v>
+      </c>
+      <c r="C21" s="4">
         <f t="shared" ref="C21:D21" si="1">AVERAGE(C18:C20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="4" t="e">
+        <v>2045.08</v>
+      </c>
+      <c r="D21" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -12648,34 +12684,34 @@
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="1" t="e">
+      <c r="B33" s="1">
         <f>B17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C33" s="1" t="e">
+        <v>206.2893333333333</v>
+      </c>
+      <c r="C33" s="1">
         <f t="shared" ref="C33:D33" si="4">C17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="1" t="e">
+        <v>206.00099999999998</v>
+      </c>
+      <c r="D33" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>99.333333333333329</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="1" t="e">
+      <c r="B34" s="1">
         <f>B21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C34" s="1" t="e">
+        <v>2045.0630000000001</v>
+      </c>
+      <c r="C34" s="1">
         <f t="shared" ref="C34:D34" si="5">C21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D34" s="1" t="e">
+        <v>2045.08</v>
+      </c>
+      <c r="D34" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -12705,8 +12741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12887,61 +12923,89 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="1">
+        <v>208.50399999999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>208.43799999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>208.98699999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>130</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="1">
+        <v>206.95</v>
+      </c>
+      <c r="C15" s="1">
+        <v>206.81100000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>206.47300000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>126</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="1">
+        <v>206.94800000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>206.40199999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>207.214</v>
+      </c>
+      <c r="E16" s="1">
+        <v>130</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="4" t="e">
+      <c r="B17" s="4">
         <f>AVERAGE(B14:B16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="4" t="e">
+        <v>207.4673333333333</v>
+      </c>
+      <c r="C17" s="4">
         <f t="shared" ref="C17:E17" si="2">AVERAGE(C14:C16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="4" t="e">
+        <v>207.21700000000001</v>
+      </c>
+      <c r="D17" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="4" t="e">
+        <v>207.55799999999999</v>
+      </c>
+      <c r="E17" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>128.66666666666666</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="1">
+        <v>2083.6439999999998</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2075.355</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2075.2260000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>161</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -12954,21 +13018,21 @@
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4" t="e">
+      <c r="B21" s="4">
         <f>AVERAGE(B18:B20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C21" s="4" t="e">
-        <f t="shared" ref="C21:E21" si="3">AVERAGE(C18:C20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2083.6439999999998</v>
+      </c>
+      <c r="C21" s="4">
+        <f>AVERAGE(C18:C20)</f>
+        <v>2075.355</v>
+      </c>
+      <c r="D21" s="4">
+        <f>AVERAGE(D18:D20)</f>
+        <v>2075.2260000000001</v>
+      </c>
+      <c r="E21" s="4">
+        <f>AVERAGE(E18:E20)</f>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -13041,15 +13105,15 @@
         <v>3.4410000000000003</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" ref="C31:E31" si="4">C9</f>
+        <f t="shared" ref="C31:E31" si="3">C9</f>
         <v>3.4393333333333338</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.4819999999999998</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>76.333333333333329</v>
       </c>
     </row>
@@ -13062,15 +13126,15 @@
         <v>23.374666666666666</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" ref="C32:E32" si="5">C13</f>
+        <f t="shared" ref="C32:E32" si="4">C13</f>
         <v>23.331333333333333</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23.378</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>173.66666666666666</v>
       </c>
     </row>
@@ -13078,42 +13142,42 @@
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="1" t="e">
+      <c r="B33" s="1">
         <f>B17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C33" s="1" t="e">
-        <f t="shared" ref="C33:E33" si="6">C17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>207.4673333333333</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" ref="C33:E33" si="5">C17</f>
+        <v>207.21700000000001</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="5"/>
+        <v>207.55799999999999</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="5"/>
+        <v>128.66666666666666</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="1" t="e">
+      <c r="B34" s="1">
         <f>B21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C34" s="1" t="e">
-        <f t="shared" ref="C34:E34" si="7">C21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D34" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E34" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>2083.6439999999998</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" ref="C34:E34" si="6">C21</f>
+        <v>2075.355</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="6"/>
+        <v>2075.2260000000001</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="6"/>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -13125,15 +13189,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C35" s="1" t="e">
-        <f t="shared" ref="C35:E35" si="8">C25</f>
+        <f t="shared" ref="C35:E35" si="7">C25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D35" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13147,8 +13211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13358,62 +13422,102 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="1">
+        <v>250.33199999999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>249.625</v>
+      </c>
+      <c r="D14" s="1">
+        <v>246.38800000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>249.648</v>
+      </c>
+      <c r="F14" s="1">
+        <v>140</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="1">
+        <v>220.56899999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>216.21700000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>217.959</v>
+      </c>
+      <c r="E15" s="1">
+        <v>217.84100000000001</v>
+      </c>
+      <c r="F15" s="10">
+        <v>137</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="B16" s="1">
+        <v>217.887</v>
+      </c>
+      <c r="C16" s="1">
+        <v>213.626</v>
+      </c>
+      <c r="D16" s="1">
+        <v>216.239</v>
+      </c>
+      <c r="E16" s="1">
+        <v>215.666</v>
+      </c>
+      <c r="F16" s="1">
+        <v>146</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="7" t="e">
+      <c r="B17" s="7">
         <f>AVERAGE(B14:B16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="7" t="e">
+        <v>229.596</v>
+      </c>
+      <c r="C17" s="7">
         <f t="shared" ref="C17:F17" si="2">AVERAGE(C14:C16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="7" t="e">
+        <v>226.48933333333332</v>
+      </c>
+      <c r="D17" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="7" t="e">
+        <v>226.86199999999999</v>
+      </c>
+      <c r="E17" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="7" t="e">
+        <v>227.71833333333333</v>
+      </c>
+      <c r="F17" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="B18" s="1">
+        <v>2166.9569999999999</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2152.752</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2174.8629999999998</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2187.2890000000002</v>
+      </c>
+      <c r="F18" s="1">
+        <v>159</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -13435,25 +13539,25 @@
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="7" t="e">
+      <c r="B21" s="7">
         <f>AVERAGE(B18:B20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C21" s="7" t="e">
-        <f t="shared" ref="C21:E21" si="3">AVERAGE(C18:C20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="7" t="e">
+        <v>2166.9569999999999</v>
+      </c>
+      <c r="C21" s="7">
+        <f>AVERAGE(C18:C20)</f>
+        <v>2152.752</v>
+      </c>
+      <c r="D21" s="7">
+        <f>AVERAGE(D18:D20)</f>
+        <v>2174.8629999999998</v>
+      </c>
+      <c r="E21" s="7">
+        <f>AVERAGE(E18:E20)</f>
+        <v>2187.2890000000002</v>
+      </c>
+      <c r="F21" s="7">
         <f>AVERAGE(F18:F20)</f>
-        <v>#DIV/0!</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -13491,15 +13595,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C25" s="7" t="e">
-        <f t="shared" ref="C25" si="4">AVERAGE(C22:C24)</f>
+        <f t="shared" ref="C25" si="3">AVERAGE(C22:C24)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D25" s="7" t="e">
-        <f t="shared" ref="D25" si="5">AVERAGE(D22:D24)</f>
+        <f t="shared" ref="D25" si="4">AVERAGE(D22:D24)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="7" t="e">
-        <f t="shared" ref="E25" si="6">AVERAGE(E22:E24)</f>
+        <f t="shared" ref="E25" si="5">AVERAGE(E22:E24)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="7" t="e">
@@ -13581,50 +13685,50 @@
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="1" t="e">
+      <c r="B31" s="1">
         <f>B17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C31" s="1" t="e">
-        <f t="shared" ref="C31:F31" si="7">C17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>229.596</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" ref="C31:F31" si="6">C17</f>
+        <v>226.48933333333332</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="6"/>
+        <v>226.86199999999999</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="6"/>
+        <v>227.71833333333333</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="6"/>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="1" t="e">
+      <c r="B32" s="1">
         <f>B21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C32" s="1" t="e">
-        <f t="shared" ref="C32:F32" si="8">C21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2166.9569999999999</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" ref="C32:F32" si="7">C21</f>
+        <v>2152.752</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="7"/>
+        <v>2174.8629999999998</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="7"/>
+        <v>2187.2890000000002</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="7"/>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -13638,7 +13742,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13878,70 +13982,118 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
+      <c r="B14" s="1">
+        <v>287.42099999999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>275.91800000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>261.863</v>
+      </c>
+      <c r="E14" s="1">
+        <v>270.52300000000002</v>
+      </c>
+      <c r="F14" s="1">
+        <v>279.42500000000001</v>
+      </c>
+      <c r="G14" s="2">
+        <v>158</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
+      <c r="B15" s="1">
+        <v>270.76799999999997</v>
+      </c>
+      <c r="C15" s="1">
+        <v>269.93900000000002</v>
+      </c>
+      <c r="D15" s="1">
+        <v>269.79899999999998</v>
+      </c>
+      <c r="E15" s="1">
+        <v>263.89</v>
+      </c>
+      <c r="F15" s="1">
+        <v>270.702</v>
+      </c>
+      <c r="G15" s="2">
+        <v>160</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
+      <c r="B16" s="1">
+        <v>277.85899999999998</v>
+      </c>
+      <c r="C16" s="1">
+        <v>272.202</v>
+      </c>
+      <c r="D16" s="1">
+        <v>277.18700000000001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>269.959</v>
+      </c>
+      <c r="F16" s="1">
+        <v>278.15499999999997</v>
+      </c>
+      <c r="G16" s="2">
+        <v>152</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="4" t="e">
+      <c r="B17" s="4">
         <f>AVERAGE(B14,B15,B16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="4" t="e">
+        <v>278.68266666666665</v>
+      </c>
+      <c r="C17" s="4">
         <f t="shared" ref="C17:G17" si="2">AVERAGE(C14,C15,C16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="4" t="e">
+        <v>272.68633333333332</v>
+      </c>
+      <c r="D17" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="4" t="e">
+        <v>269.61633333333333</v>
+      </c>
+      <c r="E17" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="4" t="e">
+        <v>268.12400000000002</v>
+      </c>
+      <c r="F17" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="4" t="e">
+        <v>276.09399999999999</v>
+      </c>
+      <c r="G17" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>156.66666666666666</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="B18" s="1">
+        <v>2526.893</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2499.8090000000002</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2493.2539999999999</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2453.5740000000001</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2531.4070000000002</v>
+      </c>
+      <c r="G18" s="1">
+        <v>224</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -13965,29 +14117,29 @@
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4" t="e">
+      <c r="B21" s="4">
         <f>AVERAGE(B18,B19,B20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C21" s="4" t="e">
+        <v>2526.893</v>
+      </c>
+      <c r="C21" s="4">
         <f t="shared" ref="C21:G21" si="3">AVERAGE(C18,C19,C20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="4" t="e">
+        <v>2499.8090000000002</v>
+      </c>
+      <c r="D21" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="4" t="e">
+        <v>2493.2539999999999</v>
+      </c>
+      <c r="E21" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="4" t="e">
+        <v>2453.5740000000001</v>
+      </c>
+      <c r="F21" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="4" t="e">
+        <v>2531.4070000000002</v>
+      </c>
+      <c r="G21" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -14075,58 +14227,58 @@
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="1" t="e">
+      <c r="B27" s="1">
         <f>B17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C27" s="1" t="e">
+        <v>278.68266666666665</v>
+      </c>
+      <c r="C27" s="1">
         <f t="shared" ref="C27:G27" si="6">C17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D27" s="1" t="e">
+        <v>272.68633333333332</v>
+      </c>
+      <c r="D27" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" s="1" t="e">
+        <v>269.61633333333333</v>
+      </c>
+      <c r="E27" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="1" t="e">
+        <v>268.12400000000002</v>
+      </c>
+      <c r="F27" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="1" t="e">
+        <v>276.09399999999999</v>
+      </c>
+      <c r="G27" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>156.66666666666666</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="1" t="e">
+      <c r="B28" s="1">
         <f>B21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C28" s="1" t="e">
+        <v>2526.893</v>
+      </c>
+      <c r="C28" s="1">
         <f t="shared" ref="C28:G28" si="7">C21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D28" s="1" t="e">
+        <v>2499.8090000000002</v>
+      </c>
+      <c r="D28" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="1" t="e">
+        <v>2493.2539999999999</v>
+      </c>
+      <c r="E28" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="1" t="e">
+        <v>2453.5740000000001</v>
+      </c>
+      <c r="F28" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="1" t="e">
+        <v>2531.4070000000002</v>
+      </c>
+      <c r="G28" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
